--- a/Documentation/StatesAndModesMatrix.xlsx
+++ b/Documentation/StatesAndModesMatrix.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\ChessForge\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F395E46-5162-46C0-9D19-01D4DA6262DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA0FB87-6487-4343-8BB4-35694E94414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27855" windowHeight="16440" xr2:uid="{D1D6932C-7ED0-4508-BC05-00AFE17CFC60}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Top Level" sheetId="1" r:id="rId1"/>
+    <sheet name="Training Mode" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="44">
   <si>
     <t>IDLE</t>
   </si>
@@ -141,13 +142,40 @@
   </si>
   <si>
     <t>Engine Message Poll</t>
+  </si>
+  <si>
+    <t>Check for User Move</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>TRAINING MODE WHEN NOT EVALUATING</t>
+  </si>
+  <si>
+    <t>User Move Completed</t>
+  </si>
+  <si>
+    <t>Awaiting User Move</t>
+  </si>
+  <si>
+    <t>Request Workbook Move</t>
+  </si>
+  <si>
+    <t>Await Workbook Response</t>
+  </si>
+  <si>
+    <t>Awaiting Workbook Move</t>
+  </si>
+  <si>
+    <t>* see the Training Mode tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +186,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,11 +262,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,6 +353,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +693,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,18 +1317,43 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="C21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
@@ -1246,9 +1374,11 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="F23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -1354,7 +1484,8 @@
       <c r="M30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="J3:K3"/>
@@ -1365,4 +1496,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71572250-BD26-48EE-A418-BF5E546060BB}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>